--- a/Otherwork/MonthlyPlanner.xlsx
+++ b/Otherwork/MonthlyPlanner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F49A33-6EA8-488E-8B20-D0C0C2891256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033DC7B-1E3E-4DDB-AFC9-54AECA1A70FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Other</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Work inweb</t>
+  </si>
+  <si>
+    <t>Sign in page: laravel breeze</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,7 +847,64 @@
     <xf numFmtId="166" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,57 +927,6 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1426,7 +1435,7 @@
   <dimension ref="C1:AF45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1465,13 +1474,13 @@
       </c>
     </row>
     <row r="2" spans="3:31" s="24" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="L2" s="25"/>
@@ -1518,96 +1527,96 @@
       <c r="AE3" s="7"/>
     </row>
     <row r="4" spans="3:31" s="16" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="F4" s="84" t="s">
+      <c r="D4" s="89"/>
+      <c r="F4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="I4" s="84" t="s">
+      <c r="G4" s="89"/>
+      <c r="I4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="L4" s="84" t="s">
+      <c r="J4" s="89"/>
+      <c r="L4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="84"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84"/>
-      <c r="R4" s="84" t="s">
+      <c r="P4" s="89"/>
+      <c r="R4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="84"/>
-      <c r="U4" s="84" t="s">
+      <c r="S4" s="89"/>
+      <c r="U4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="84"/>
-      <c r="Y4" s="84" t="s">
+      <c r="V4" s="89"/>
+      <c r="Y4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
     </row>
     <row r="5" spans="3:31" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="75" t="str">
+      <c r="C5" s="94" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+1)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+1)</f>
         <v/>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="75" t="str">
+      <c r="F5" s="94" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+2)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+2)</f>
         <v/>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="75">
+      <c r="I5" s="94">
         <f>IF(MONTH(ThisMonth_WeekStart+3)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+3)</f>
         <v>44621</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="75">
+      <c r="L5" s="94">
         <f>IF(MONTH(ThisMonth_WeekStart+4)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+4)</f>
         <v>44622</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="94"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="75">
+      <c r="O5" s="94">
         <f>IF(MONTH(ThisMonth_WeekStart+5)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+5)</f>
         <v>44623</v>
       </c>
-      <c r="P5" s="75"/>
+      <c r="P5" s="94"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="75">
+      <c r="R5" s="94">
         <f>IF(MONTH(ThisMonth_WeekStart+6)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+6)</f>
         <v>44624</v>
       </c>
-      <c r="S5" s="75"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="75">
+      <c r="U5" s="94">
         <f>IF(MONTH(ThisMonth_WeekStart+7)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+7)</f>
         <v>44625</v>
       </c>
-      <c r="V5" s="75"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="15"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
     </row>
     <row r="6" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="32"/>
@@ -1627,15 +1636,15 @@
       <c r="U6" s="32"/>
       <c r="V6" s="33"/>
       <c r="X6" s="10"/>
-      <c r="Y6" s="86" t="s">
+      <c r="Y6" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
     </row>
     <row r="7" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="32"/>
@@ -1653,15 +1662,15 @@
       <c r="U7" s="32"/>
       <c r="V7" s="33"/>
       <c r="X7" s="10"/>
-      <c r="Y7" s="86" t="s">
+      <c r="Y7" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
     </row>
     <row r="8" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="32"/>
@@ -1679,15 +1688,15 @@
       <c r="U8" s="32"/>
       <c r="V8" s="33"/>
       <c r="X8" s="10"/>
-      <c r="Y8" s="87" t="s">
+      <c r="Y8" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="78"/>
     </row>
     <row r="9" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="32"/>
@@ -1705,13 +1714,13 @@
       <c r="U9" s="32"/>
       <c r="V9" s="33"/>
       <c r="X9" s="10"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
     </row>
     <row r="10" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="34"/>
@@ -1729,65 +1738,65 @@
       <c r="U10" s="34"/>
       <c r="V10" s="35"/>
       <c r="X10" s="10"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
     </row>
     <row r="11" spans="3:31" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="74">
+      <c r="C11" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+8)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+8)</f>
         <v>44626</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="74">
+      <c r="F11" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+9)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+9)</f>
         <v>44627</v>
       </c>
-      <c r="G11" s="74"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="74">
+      <c r="I11" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+10)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+10)</f>
         <v>44628</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="74">
+      <c r="L11" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+11)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+11)</f>
         <v>44629</v>
       </c>
-      <c r="M11" s="74"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="74">
+      <c r="O11" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+12)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+12)</f>
         <v>44630</v>
       </c>
-      <c r="P11" s="74"/>
+      <c r="P11" s="90"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="74">
+      <c r="R11" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+13)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+13)</f>
         <v>44631</v>
       </c>
-      <c r="S11" s="74"/>
+      <c r="S11" s="90"/>
       <c r="T11" s="15"/>
-      <c r="U11" s="74">
+      <c r="U11" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+14)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+14)</f>
         <v>44632</v>
       </c>
-      <c r="V11" s="74"/>
+      <c r="V11" s="90"/>
       <c r="W11" s="15"/>
       <c r="X11" s="14"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
     </row>
     <row r="12" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="32"/>
@@ -1808,10 +1817,10 @@
         <v>25</v>
       </c>
       <c r="M12" s="33"/>
-      <c r="O12" s="88" t="s">
+      <c r="O12" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="89"/>
+      <c r="P12" s="77"/>
       <c r="R12" s="45" t="s">
         <v>30</v>
       </c>
@@ -1821,13 +1830,13 @@
       </c>
       <c r="V12" s="33"/>
       <c r="X12" s="10"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
     </row>
     <row r="13" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="32"/>
@@ -1844,23 +1853,23 @@
         <v>26</v>
       </c>
       <c r="M13" s="33"/>
-      <c r="O13" s="93" t="s">
+      <c r="O13" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="94"/>
+      <c r="P13" s="83"/>
       <c r="R13" s="44" t="s">
         <v>41</v>
       </c>
       <c r="S13" s="33"/>
       <c r="V13" s="33"/>
       <c r="X13" s="10"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
     </row>
     <row r="14" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="32"/>
@@ -1875,23 +1884,23 @@
         <v>41</v>
       </c>
       <c r="M14" s="33"/>
-      <c r="O14" s="95" t="s">
+      <c r="O14" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="96"/>
+      <c r="P14" s="85"/>
       <c r="R14" s="46" t="s">
         <v>32</v>
       </c>
       <c r="S14" s="33"/>
       <c r="V14" s="33"/>
       <c r="X14" s="10"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="78"/>
     </row>
     <row r="15" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="32"/>
@@ -1906,20 +1915,20 @@
         <v>27</v>
       </c>
       <c r="M15" s="33"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="98"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
       <c r="U15" s="32"/>
       <c r="V15" s="33"/>
       <c r="X15" s="10"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
     </row>
     <row r="16" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="34"/>
@@ -1939,67 +1948,67 @@
       <c r="U16" s="34"/>
       <c r="V16" s="35"/>
       <c r="X16" s="10"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="86"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
     </row>
     <row r="17" spans="3:31" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="74">
+      <c r="C17" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+15)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+15)</f>
         <v>44633</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="74">
+      <c r="F17" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+16)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+16)</f>
         <v>44634</v>
       </c>
-      <c r="G17" s="74"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="74">
+      <c r="I17" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+17)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+17)</f>
         <v>44635</v>
       </c>
-      <c r="J17" s="74"/>
+      <c r="J17" s="90"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="74">
+      <c r="L17" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+18)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+18)</f>
         <v>44636</v>
       </c>
-      <c r="M17" s="74"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="74">
+      <c r="O17" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+19)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+19)</f>
         <v>44637</v>
       </c>
-      <c r="P17" s="74"/>
+      <c r="P17" s="90"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="74">
+      <c r="R17" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+20)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+20)</f>
         <v>44638</v>
       </c>
-      <c r="S17" s="74"/>
+      <c r="S17" s="90"/>
       <c r="T17" s="15"/>
-      <c r="U17" s="74">
+      <c r="U17" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+21)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+21)</f>
         <v>44639</v>
       </c>
-      <c r="V17" s="74"/>
+      <c r="V17" s="90"/>
       <c r="W17" s="15"/>
       <c r="X17" s="14"/>
-      <c r="Y17" s="86" t="s">
+      <c r="Y17" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
     </row>
     <row r="18" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="32"/>
@@ -2029,15 +2038,15 @@
       </c>
       <c r="V18" s="33"/>
       <c r="X18" s="10"/>
-      <c r="Y18" s="90" t="s">
+      <c r="Y18" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
     </row>
     <row r="19" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="32"/>
@@ -2067,15 +2076,15 @@
       </c>
       <c r="V19" s="33"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="91" t="s">
+      <c r="Y19" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
     </row>
     <row r="20" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="32"/>
@@ -2101,15 +2110,15 @@
       </c>
       <c r="V20" s="33"/>
       <c r="X20" s="10"/>
-      <c r="Y20" s="92" t="s">
+      <c r="Y20" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
     </row>
     <row r="21" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="32"/>
@@ -2133,13 +2142,13 @@
       </c>
       <c r="V21" s="33"/>
       <c r="X21" s="10"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
     </row>
     <row r="22" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="34"/>
@@ -2161,66 +2170,66 @@
       <c r="U22" s="34"/>
       <c r="V22" s="35"/>
       <c r="X22" s="10"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
     </row>
     <row r="23" spans="3:31" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="74">
+      <c r="C23" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+22)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+22)</f>
         <v>44640</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="74">
+      <c r="F23" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+23)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+23)</f>
         <v>44641</v>
       </c>
-      <c r="G23" s="74"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="74">
+      <c r="I23" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+24)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+24)</f>
         <v>44642</v>
       </c>
-      <c r="J23" s="74"/>
+      <c r="J23" s="90"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="74">
+      <c r="L23" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+25)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+25)</f>
         <v>44643</v>
       </c>
-      <c r="M23" s="74"/>
+      <c r="M23" s="90"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="74">
+      <c r="O23" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+26)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+26)</f>
         <v>44644</v>
       </c>
-      <c r="P23" s="74"/>
+      <c r="P23" s="90"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="74">
+      <c r="R23" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+27)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+27)</f>
         <v>44645</v>
       </c>
-      <c r="S23" s="74"/>
+      <c r="S23" s="90"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="74">
+      <c r="U23" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+28)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+28)</f>
         <v>44646</v>
       </c>
-      <c r="V23" s="74"/>
+      <c r="V23" s="90"/>
       <c r="W23" s="15"/>
       <c r="X23" s="14"/>
     </row>
     <row r="24" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="77"/>
+      <c r="G24" s="96"/>
       <c r="I24" s="65" t="s">
         <v>65</v>
       </c>
@@ -2242,24 +2251,24 @@
       </c>
       <c r="V24" s="33"/>
       <c r="X24" s="10"/>
-      <c r="Y24" s="83">
+      <c r="Y24" s="88">
         <f>EDATE(ThisMonth,-1)</f>
         <v>44593</v>
       </c>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83"/>
-      <c r="AE24" s="83"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="88"/>
     </row>
     <row r="25" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
-      <c r="F25" s="78" t="s">
+      <c r="F25" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="79"/>
+      <c r="G25" s="98"/>
       <c r="I25" s="64" t="s">
         <v>66</v>
       </c>
@@ -2306,10 +2315,10 @@
     <row r="26" spans="3:31" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="32"/>
       <c r="D26" s="33"/>
-      <c r="F26" s="80" t="s">
+      <c r="F26" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="81"/>
+      <c r="G26" s="100"/>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
       <c r="L26" s="32"/>
@@ -2441,47 +2450,47 @@
       </c>
     </row>
     <row r="29" spans="3:31" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="74">
+      <c r="C29" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+29)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+29)</f>
         <v>44647</v>
       </c>
-      <c r="D29" s="74"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="74">
+      <c r="F29" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+30)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+30)</f>
         <v>44648</v>
       </c>
-      <c r="G29" s="74"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="74">
+      <c r="I29" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+31)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+31)</f>
         <v>44649</v>
       </c>
-      <c r="J29" s="74"/>
+      <c r="J29" s="90"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="74">
+      <c r="L29" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+32)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+32)</f>
         <v>44650</v>
       </c>
-      <c r="M29" s="74"/>
+      <c r="M29" s="90"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="74">
+      <c r="O29" s="90">
         <f>IF(MONTH(ThisMonth_WeekStart+33)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+33)</f>
         <v>44651</v>
       </c>
-      <c r="P29" s="74"/>
+      <c r="P29" s="90"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="74" t="str">
+      <c r="R29" s="90" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+34)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+34)</f>
         <v/>
       </c>
-      <c r="S29" s="74"/>
+      <c r="S29" s="90"/>
       <c r="T29" s="15"/>
-      <c r="U29" s="74" t="str">
+      <c r="U29" s="90" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+35)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+35)</f>
         <v/>
       </c>
-      <c r="V29" s="74"/>
+      <c r="V29" s="90"/>
       <c r="W29" s="15"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="22">
@@ -2524,7 +2533,9 @@
         <v>75</v>
       </c>
       <c r="J30" s="33"/>
-      <c r="L30" s="32"/>
+      <c r="L30" s="75" t="s">
+        <v>77</v>
+      </c>
       <c r="M30" s="33"/>
       <c r="O30" s="32"/>
       <c r="P30" s="33"/>
@@ -2573,7 +2584,9 @@
         <v>76</v>
       </c>
       <c r="J31" s="33"/>
-      <c r="L31" s="32"/>
+      <c r="L31" s="74" t="s">
+        <v>34</v>
+      </c>
       <c r="M31" s="33"/>
       <c r="O31" s="32"/>
       <c r="P31" s="33"/>
@@ -2646,16 +2659,16 @@
       <c r="U33" s="32"/>
       <c r="V33" s="33"/>
       <c r="X33" s="10"/>
-      <c r="Y33" s="83">
+      <c r="Y33" s="88">
         <f>EDATE(ThisMonth,1)</f>
         <v>44652</v>
       </c>
-      <c r="Z33" s="83"/>
-      <c r="AA33" s="83"/>
-      <c r="AB33" s="83"/>
-      <c r="AC33" s="83"/>
-      <c r="AD33" s="83"/>
-      <c r="AE33" s="83"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="88"/>
     </row>
     <row r="34" spans="3:32" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="34"/>
@@ -2696,47 +2709,47 @@
       </c>
     </row>
     <row r="35" spans="3:32" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="74" t="str">
+      <c r="C35" s="90" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+36)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+36)</f>
         <v/>
       </c>
-      <c r="D35" s="74"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="74" t="str">
+      <c r="F35" s="90" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+37)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+37)</f>
         <v/>
       </c>
-      <c r="G35" s="74"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="74" t="str">
+      <c r="I35" s="90" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+38)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+38)</f>
         <v/>
       </c>
-      <c r="J35" s="74"/>
+      <c r="J35" s="90"/>
       <c r="K35" s="15"/>
-      <c r="L35" s="74" t="str">
+      <c r="L35" s="90" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+39)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+39)</f>
         <v/>
       </c>
-      <c r="M35" s="74"/>
+      <c r="M35" s="90"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="74" t="str">
+      <c r="O35" s="90" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+40)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+40)</f>
         <v/>
       </c>
-      <c r="P35" s="74"/>
+      <c r="P35" s="90"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="74" t="str">
+      <c r="R35" s="90" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+41)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+41)</f>
         <v/>
       </c>
-      <c r="S35" s="74"/>
+      <c r="S35" s="90"/>
       <c r="T35" s="15"/>
-      <c r="U35" s="74" t="str">
+      <c r="U35" s="90" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+42)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+42)</f>
         <v/>
       </c>
-      <c r="V35" s="74"/>
+      <c r="V35" s="90"/>
       <c r="W35" s="15"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="22" t="str">
@@ -3100,17 +3113,57 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Y21:AE21"/>
-    <mergeCell ref="Y22:AE22"/>
-    <mergeCell ref="Y16:AE16"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="Y18:AE18"/>
-    <mergeCell ref="Y19:AE19"/>
-    <mergeCell ref="Y20:AE20"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="Y24:AE24"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:S17"/>
     <mergeCell ref="Y33:AE33"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="R4:S4"/>
@@ -3127,57 +3180,17 @@
     <mergeCell ref="Y13:AE13"/>
     <mergeCell ref="Y14:AE14"/>
     <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="Y24:AE24"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Y21:AE21"/>
+    <mergeCell ref="Y22:AE22"/>
+    <mergeCell ref="Y16:AE16"/>
+    <mergeCell ref="Y17:AE17"/>
+    <mergeCell ref="Y18:AE18"/>
+    <mergeCell ref="Y19:AE19"/>
+    <mergeCell ref="Y20:AE20"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C10 C12:C16 C18:C22 C24:C28 C30:C34 U15:U16 F19:F20 U12">
     <cfRule type="expression" dxfId="31" priority="84" stopIfTrue="1">
@@ -3336,7 +3349,7 @@
       </c>
       <c r="B1" s="31">
         <f ca="1">TODAY()</f>
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3406,6 +3419,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="64dfb1555687e0874b4304b796b5b0c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e4c555b5e194d05b7203de9c4567b3" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3687,35 +3728,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13DE8A63-8FF6-43D2-BD0F-B23FB85E4E46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8FA28B-3490-4B0C-8495-ABE37722A13A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77ABB98B-670E-43B6-BA05-F7DEB281A7BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3734,24 +3767,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8FA28B-3490-4B0C-8495-ABE37722A13A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13DE8A63-8FF6-43D2-BD0F-B23FB85E4E46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>